--- a/ResultadoEleicoesDistritos/R. A. AÇORES_LAGOA (SÃO MIGUEL).xlsx
+++ b/ResultadoEleicoesDistritos/R. A. AÇORES_LAGOA (SÃO MIGUEL).xlsx
@@ -597,64 +597,64 @@
         <v>3899</v>
       </c>
       <c r="H2" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I2" t="n">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="J2" t="n">
-        <v>1592</v>
+        <v>1559</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M2" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N2" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S2" t="n">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="T2" t="n">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="U2" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
-        <v>2488</v>
+        <v>2576</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="Y2" t="n">
         <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
